--- a/Netbeans/ANA-ADDIX/output/data_storage/ascii.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/ascii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2700BAB-E002-414B-A944-E9BB689ADCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7051DE0-DC26-4989-A79A-0BFFEBEEFC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="932" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="932" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/ai/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/822/1822941/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/858/1858635/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/569/1569632/</t>
+  </si>
+  <si>
+    <t>https://tech.ascii.jp/elem/000/001/839/1839540/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/782/1782816/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/802/1802363/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/907/1907004/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/779/1779694/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/590/1590992/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/iot/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/840/1840207/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/893/1893434/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/731/1731970/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/853/1853779/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/943/1943497/</t>
+  </si>
+  <si>
+    <t>https://tech.ascii.jp/elem/000/001/939/1939689/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/892/1892653/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/860/1860761/</t>
+  </si>
+  <si>
+    <t>https://ascii.jp/elem/000/001/783/1783853/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,25 +487,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD706"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -461,17 +572,17 @@
       <selection activeCell="A3" sqref="A3:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -489,17 +600,17 @@
       <selection activeCell="A3" sqref="A3:XFD140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -517,17 +628,17 @@
       <selection activeCell="A3" sqref="A3:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -545,17 +656,17 @@
       <selection activeCell="A3" sqref="A3:XFD85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,17 +684,17 @@
       <selection activeCell="A3" sqref="A3:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,17 +712,17 @@
       <selection activeCell="A3" sqref="A3:XFD93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,17 +740,17 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -657,17 +768,17 @@
       <selection activeCell="A3" sqref="A3:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -681,19 +792,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -705,25 +816,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD154"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -739,17 +900,17 @@
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -767,17 +928,17 @@
       <selection activeCell="A3" sqref="A3:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -795,17 +956,17 @@
       <selection activeCell="A3" sqref="A3:XFD190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -823,17 +984,17 @@
       <selection activeCell="A3" sqref="A3:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -851,17 +1012,17 @@
       <selection activeCell="A3" sqref="A3:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -877,17 +1038,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -905,17 +1066,17 @@
       <selection activeCell="A3" sqref="A3:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
